--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917F8BB-1376-4895-8287-F59479CFF911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792DAC4-24B5-4DF1-8751-3D2CAF363E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +96,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For active device (SG, VSI, etc), please use PGI and QGi. For load, please use PLi and QLi.</t>
+    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self branch HAS TO be GC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual branch HAS TO be RL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For each bus, at least ONE and only ONE device can be connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the devices connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Initial step, 2-Every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QGi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QLi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmin (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmax (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vsp (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Gauss-Seidel, 2-Newtown-Raphson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-No, 1-Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-Disable, 1-Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summaries advanced settings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (create simulink model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot pole map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot admittance)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (print output)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot swing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization damping flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct feedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power flow algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base voltage (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type with default values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%===============================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta (rad)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: SG (constant field flux)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: SG (with exitation circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10: VSI (dc-side input is Pdc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11: VSI (fixed vdc, id_r = Pdc/vd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12: VSI (dc-side input is idc = Pdc/vdc_r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: SG (with prime mover control)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100: Floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90: Infinite bus (short circuit in 
+small-signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: the voltage and frequency of infinite bus are setted by power flow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: the floating bus is used for the case when "no device" is connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-19: Grid-following inverter with PLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdc = 2.5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc = 1.25 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL = 0.03 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdc
+ = 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth PLL
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth idq
+= 500 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLf = 0.05 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rf = 0.05/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wCf = 0.02 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLc = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rc = 0.01/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth Droop
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdq
+= 250 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth idq
+= 500 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21: VSI (fixed vdc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H = 3.5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D = 1 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL = 0.1 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,13 +465,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>red</t>
+      <t>blue</t>
     </r>
     <r>
       <rPr>
@@ -128,346 +487,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self branch HAS TO be GC.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutual branch HAS TO be RL.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL (pu) = 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H (pu) = 3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R (pu) = 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vdc (pu) = 2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cdc (pu) = 1.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth PLL (Hz) = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth idq (Hz) = 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth vdc (Hz) = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For each bus, at least ONE and only ONE device can be connected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All self branch HAT TO be set, even with a very small value of G.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added between FromBus and Zbranch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Initial step, 2-Every step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes basic settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QGi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QLi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmin (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmax (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vsp (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Gauss-Seidel, 2-Newtown-Raphson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-No, 1-Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-Disable, 1-Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D (pu) = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summaries advanced settings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (create simulink model)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (plot pole map)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (plot admittance)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (print output)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (plot swing)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization damping flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linearization times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direct feedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power flow algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type with default values:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%===============================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theta (rad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: SG (constant field flux)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: SG (with exitation circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10: VSI (dc-side input is Pdc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11: VSI (fixed vdc, id_r = Pdc/vd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12: VSI (dc-side input is idc = Pdc/vdc_r)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: SG (with prime mover control)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21: VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10: Synchronous generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100: Floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-19: Grid-following voltage- 
-source inverter with PLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29: Grid-forming voltage-
-source inverter with droop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90: Infinite bus (short circuit in 
-small-signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note: the voltage and frequency of infinite bus are setted by power flow.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note: the floating bus is used for the case when "no device" is connected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL (pu) = 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal</t>
+    <t>0-10: Synchronous machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w Droop Gain Dw
+= 5/100 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xov = 0 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29: Grid-forming inverter with frequency droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and branch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FromBus should NOT equal to ToBus in this list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a pi-circuit between two buses, i.e., a RX impedance with BG at two terminals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All self branch HAT TO be set, even with a very small value of wC or G.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,7 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -529,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -537,9 +593,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,22 +626,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +930,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -884,7 +952,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -899,44 +967,44 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1076,251 +1144,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="8" width="22.265625" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" customWidth="1"/>
+    <col min="10" max="10" width="13.06640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.9296875" customWidth="1"/>
+    <col min="13" max="13" width="14.46484375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
-        <v>76</v>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="B22" s="6" t="s">
-        <v>91</v>
+      <c r="B22" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
-      <c r="B23" s="10" t="s">
-        <v>76</v>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
-        <v>96</v>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
-      <c r="B25" s="10" t="s">
-        <v>76</v>
+      <c r="B25" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
-      <c r="B27" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1332,8 +1436,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1345,8 +1450,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1377,7 +1483,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1390,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1409,7 +1515,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1417,7 +1523,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1425,7 +1531,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1442,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1469,7 +1575,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1479,30 +1585,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
+      <c r="A8" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -1517,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1713,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1726,7 +1832,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1735,46 +1841,61 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>56</v>
+      <c r="A3" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>0</v>
+      <c r="A5" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>79</v>
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1910,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1799,134 +1920,134 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792DAC4-24B5-4DF1-8751-3D2CAF363E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7707E21-F6B4-4745-AC5D-17F6A06EA62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -512,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There is a pi-circuit between two buses, i.e., a RX impedance with BG at two terminals.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +521,10 @@
   </si>
   <si>
     <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a pi-circuit between two buses, i.e., a series RX impedance with parallel BG at two terminals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1160,8 +1160,8 @@
     <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="13.796875" customWidth="1"/>
     <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" customWidth="1"/>
-    <col min="10" max="10" width="13.06640625" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="17.9296875" customWidth="1"/>
     <col min="13" max="13" width="14.46484375" customWidth="1"/>
@@ -1431,8 +1431,18 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.02</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.01</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1445,8 +1455,18 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.02</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.01</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1462,13 +1482,43 @@
       <c r="C32">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.02</v>
+      </c>
+      <c r="F32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
         <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2.5</v>
+      </c>
+      <c r="D33">
+        <v>1.25</v>
+      </c>
+      <c r="E33">
+        <v>0.03</v>
+      </c>
+      <c r="F33">
+        <v>0.01</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1548,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1575,7 +1625,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1595,7 +1645,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1822,7 +1872,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1842,7 +1892,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7707E21-F6B4-4745-AC5D-17F6A06EA62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FC088-5439-4A79-AE2C-162E0A5389D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1960,7 +1960,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FC088-5439-4A79-AE2C-162E0A5389D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F8C82-2F09-4B19-A8CB-808579FDE2D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zbranch = R+wL+1/(wC+G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PGi and QGi are in generator convention. PLi and QLi are in load convention.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Initial step, 2-Every step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +289,6 @@
   </si>
   <si>
     <t>theta (rad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer data:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,15 +500,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>All self branch HAT TO be set, even with a very small value of wC or G.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There is a pi-circuit between two buses, i.e., a series RX impedance with parallel BG at two terminals.</t>
+    <t>Enable (participation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-Disable, 1-Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -642,7 +646,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,7 +933,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -962,49 +965,49 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1146,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1170,7 +1173,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1180,7 +1183,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1190,174 +1193,174 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="12" t="s">
-        <v>107</v>
+      <c r="B21" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="K21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F21" t="s">
+      <c r="L21" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="B22" s="13" t="s">
-        <v>99</v>
+      <c r="B22" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1367,7 +1370,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1377,16 +1380,16 @@
     <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1396,32 +1399,32 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -1533,7 +1536,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1546,12 +1549,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1565,7 +1568,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1581,7 +1584,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1596,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1620,12 +1623,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1635,53 +1638,71 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -1701,10 +1722,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0.01</v>
@@ -1727,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.01</v>
@@ -1742,38 +1763,38 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
       </c>
       <c r="G14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1793,10 +1814,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1808,7 +1829,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1816,10 +1837,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1831,32 +1852,9 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F18">
-        <v>0.05</v>
-      </c>
-      <c r="G18">
         <v>1</v>
       </c>
     </row>
@@ -1869,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1882,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1897,55 +1895,60 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>43</v>
+      <c r="A6" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>0</v>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
+      <c r="A9" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1957,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1970,134 +1973,145 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F8C82-2F09-4B19-A8CB-808579FDE2D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6CFCF7-D3A2-4D61-9F41-FFA234301CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,7 +1606,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1867,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1949,6 +1953,29 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6CFCF7-D3A2-4D61-9F41-FFA234301CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDEF7D-D578-4022-9D48-F22AA6C71B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,10 +529,6 @@
   </si>
   <si>
     <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1953,29 +1949,6 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDEF7D-D578-4022-9D48-F22AA6C71B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C810B-A5A6-4C8E-9ADC-FC59480B4DBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Initial step, 2-Every step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bus number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,14 +245,6 @@
   </si>
   <si>
     <t>Base voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,21 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bandwidth vdc
- = 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth PLL
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth idq
-= 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wLf = 0.05 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,21 +378,6 @@
   </si>
   <si>
     <t>Rc = 0.01/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth Droop
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth vdq
-= 250 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth idq
-= 500 Hz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,60 +429,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w Droop Gain Dw
+    <t>Xov = 0 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29: Grid-forming inverter with frequency droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and branch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FromBus should NOT equal to ToBus in this list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (participation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-Disable, 1-Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC bus type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC bus type: 1-slack bus (V bus), 2-NaN, 3-P bus (I bus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w droop gain Dw
 = 5/100 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xov = 0 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29: Grid-forming inverter with frequency droop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added between FromBus and branch.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FromBus should NOT equal to ToBus in this list.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (participation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-Disable, 1-Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The branches can be listed in arbitrary order.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
+    <t>Bandwidth: droop
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: vdq
+= 250 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: idq
+= 500 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: vdc
+ = 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: PLL
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -955,99 +954,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>111</v>
+      <c r="A7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1076,7 +1048,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1108,10 +1080,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1123,7 +1095,7 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1135,6 +1107,38 @@
         <v>-1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>-0.2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -1149,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1193,12 +1197,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1208,159 +1212,159 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="I21" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1370,7 +1374,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1380,16 +1384,16 @@
     <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1399,32 +1403,32 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -1549,12 +1553,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1568,7 +1572,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1576,7 +1580,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1584,7 +1588,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1623,12 +1627,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1648,15 +1652,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -1671,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1869,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1890,27 +1894,27 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1925,15 +1929,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1942,13 +1946,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1973,145 +1977,145 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C810B-A5A6-4C8E-9ADC-FC59480B4DBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1557E3-5633-4B11-84A4-928085CCDF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Basic" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
-    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
+    <sheet name="Basic" sheetId="4" r:id="rId5"/>
+    <sheet name="Advance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Initial step, 2-Every step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +173,6 @@
   </si>
   <si>
     <t>This sheet summaries advanced settings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +516,18 @@
   </si>
   <si>
     <t>Turns ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area type: 1-AC, 2-DC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC or DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,129 +929,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
     <col min="9" max="9" width="10.73046875" customWidth="1"/>
     <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1077,10 +1059,16 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1109,13 +1097,19 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1127,7 +1121,7 @@
         <v>0.5</v>
       </c>
       <c r="F13">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1139,6 +1133,50 @@
         <v>-1</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>-0.2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
     </row>
@@ -1153,14 +1191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" customWidth="1"/>
+    <col min="2" max="2" width="29.46484375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
@@ -1197,12 +1235,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1212,159 +1250,145 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>82</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1372,28 +1396,25 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1401,34 +1422,32 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -1536,6 +1555,459 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.05</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1553,12 +2025,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1572,7 +2044,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1580,7 +2052,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1588,371 +2060,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F14">
-        <v>0.6</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F16">
-        <v>0.75</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F17">
-        <v>0.05</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2078,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1977,145 +2088,145 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1557E3-5633-4B11-84A4-928085CCDF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF8CFD-6CA3-43FC-876C-23AB01C9F978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,39 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0: SG (constant field flux)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: SG (with exitation circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10: VSI (dc-side input is Pdc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11: VSI (fixed vdc, id_r = Pdc/vd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12: VSI (dc-side input is idc = Pdc/vdc_r)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: SG (with prime mover control)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100: Floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90: Infinite bus (short circuit in 
-small-signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note: the voltage and frequency of infinite bus are setted by power flow.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +337,6 @@
   </si>
   <si>
     <t>Rc = 0.01/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21: VSI (fixed vdc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,6 +491,121 @@
   </si>
   <si>
     <t>Area No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%===============================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100: DC floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1090: DC infinite bus (small-signal short-circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 0000-1000: AC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 1000-1999: DC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001: AC-DC interlink converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 2000-2999: Hybrid device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90: AC infinite bus (short circuit in 
+small-signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100: AC floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: constant field flux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: with exitation circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: with prime mover control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10: dc-side input is Pdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11: fixed vdc, id_r = Pdc/vd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12: dc-side input is idc = Pdc/vdc_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001: with vdc dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdc = 2 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdc
+= 10 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010-1019: Grid-following buck converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020-1029: Grid-forming buck converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth I
+= 500 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc = 0.8 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL = 0.05 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -649,6 +727,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -957,17 +1038,17 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -982,20 +1063,20 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1022,10 +1103,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1189,16 +1270,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.46484375" customWidth="1"/>
+    <col min="2" max="2" width="39.53125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
@@ -1213,47 +1294,47 @@
     <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1261,289 +1342,415 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="24" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>54</v>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>103</v>
-      </c>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
         <v>3.5</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>0.02</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F51" s="2">
         <v>0.01</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>2</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
         <v>3.5</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>0.02</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F52" s="2">
         <v>0.01</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>3</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>0.35</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>0.02</v>
       </c>
-      <c r="F32">
+      <c r="F53">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B54">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C54">
         <v>2.5</v>
       </c>
-      <c r="D33">
+      <c r="D54">
         <v>1.25</v>
       </c>
-      <c r="E33">
+      <c r="E54">
         <v>0.03</v>
       </c>
-      <c r="F33">
+      <c r="F54">
         <v>0.01</v>
       </c>
-      <c r="G33">
+      <c r="G54">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="H54">
         <v>20</v>
       </c>
-      <c r="I33">
+      <c r="I54">
         <v>500</v>
       </c>
     </row>
@@ -1559,7 +1766,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1579,22 +1786,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1614,7 +1821,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1637,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1765,12 +1972,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1790,7 +1997,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2030,7 +2237,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2093,7 +2300,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2116,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2220,13 +2427,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF8CFD-6CA3-43FC-876C-23AB01C9F978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2453B9-14A9-4950-AFE0-9D8470CF76C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +608,10 @@
     <t>wL = 0.05 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>The dc and hybrid devices support default data only for now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -616,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +690,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -707,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -730,6 +742,7 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1330,360 +1343,341 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
+    <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>73</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="12" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="13" t="s">
+    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>132</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="8" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="15" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="15" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="8" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0.02</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1707,13 +1701,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>0.35</v>
+      <c r="C53" s="2">
+        <v>3.5</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1721,36 +1715,60 @@
       <c r="E53">
         <v>0.02</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>0.01</v>
       </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>2.5</v>
+        <v>0.35</v>
       </c>
       <c r="D54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
         <v>0.01</v>
       </c>
-      <c r="G54">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>2.5</v>
+      </c>
+      <c r="D55">
+        <v>1.25</v>
+      </c>
+      <c r="E55">
+        <v>0.03</v>
+      </c>
+      <c r="F55">
+        <v>0.01</v>
+      </c>
+      <c r="G55">
         <v>20</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>20</v>
       </c>
-      <c r="I54">
+      <c r="I55">
         <v>500</v>
       </c>
     </row>
@@ -2285,7 +2303,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2453B9-14A9-4950-AFE0-9D8470CF76C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A890BE52-9671-433D-BFEB-97C9E5DAEAD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -510,19 +510,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>% 0000-1000: AC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 1000-1999: DC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2001: AC-DC interlink converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 2000-2999: Hybrid device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,6 +598,18 @@
   </si>
   <si>
     <t>The dc and hybrid devices support default data only for now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 0000-0100: AC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 1000-1100: DC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 2000-2100: Hybrid device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1403,17 +1403,17 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -1450,17 +1450,17 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -1505,7 +1505,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1568,35 +1568,35 @@
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -1606,12 +1606,12 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A890BE52-9671-433D-BFEB-97C9E5DAEAD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F0FD0-D011-4CBF-9A37-FC158F853AB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -576,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1010-1019: Grid-following buck converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1020-1029: Grid-forming buck converter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +606,10 @@
   </si>
   <si>
     <t>% 2000-2100: Hybrid device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010-1019: Grid-feeding buck converter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1568,22 +1568,22 @@
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>123</v>
       </c>
       <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
         <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
       </c>
       <c r="F35" t="s">
         <v>124</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>125</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F0FD0-D011-4CBF-9A37-FC158F853AB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DDD41A-B670-40F2-9144-0172F785E70F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DC bus type: 1-slack bus (V bus), 2-NaN, 3-P bus (I bus)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bus No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001: AC-DC interlink converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90: AC infinite bus (short circuit in 
 small-signal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000: fixed vdc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +598,38 @@
   </si>
   <si>
     <t>1010-1019: Grid-feeding buck converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000: power flow control (grid-feeding at both sides)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003: transfverter (grid-forming at both sides)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default data will be updated later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-2009: AC-DC interlink converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC bus type: 1-slack bus (V bus), 2-N/A, 3-P bus (I bus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001: vdc control (grid-forming at dc side)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002: vac control (grid-forming at ac side)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +640,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +718,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -743,6 +770,11 @@
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,7 +1058,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1051,7 +1083,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1061,7 +1093,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1086,10 +1118,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1116,10 +1148,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1283,16 +1315,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.86328125" customWidth="1"/>
-    <col min="2" max="2" width="39.53125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
@@ -1344,7 +1376,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1368,7 +1400,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1380,7 +1412,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1403,22 +1435,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1438,34 +1470,34 @@
         <v>69</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -1491,21 +1523,21 @@
         <v>80</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1514,7 +1546,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1523,7 +1555,7 @@
     </row>
     <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1531,7 +1563,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1540,7 +1572,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -1548,227 +1580,250 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>125</v>
+      <c r="H35" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>110</v>
+        <v>136</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
         <v>3.5</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>0.02</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F56" s="2">
         <v>0.01</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>2</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
         <v>3.5</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>0.02</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F57" s="2">
         <v>0.01</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58">
         <v>3</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>0.35</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>0.02</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>4</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C59">
         <v>2.5</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>1.25</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>0.03</v>
       </c>
-      <c r="F55">
+      <c r="F59">
         <v>0.01</v>
       </c>
-      <c r="G55">
+      <c r="G59">
         <v>20</v>
       </c>
-      <c r="H55">
+      <c r="H59">
         <v>20</v>
       </c>
-      <c r="I55">
+      <c r="I59">
         <v>500</v>
       </c>
     </row>
@@ -1862,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DDD41A-B670-40F2-9144-0172F785E70F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC7D03-C35D-4B1A-9C45-C67AA9CF0D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-Gauss-Seidel, 2-Newtown-Raphson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-No, 1-Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>Enable (print output)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (plot swing)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,6 +622,31 @@
   </si>
   <si>
     <t>2002: vac control (grid-forming at ac side)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-Gauss-Seidel, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-Newton-Raphson</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Newton-Raphson power flow method can be used for pure ac grids only.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,17 +1100,17 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1108,26 +1125,26 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1148,10 +1165,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1317,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -1361,12 +1378,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1376,168 +1393,168 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
       <c r="H25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1546,7 +1563,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1555,15 +1572,15 @@
     </row>
     <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1572,162 +1589,162 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B50" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
@@ -1859,27 +1876,27 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1894,15 +1911,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1917,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2045,12 +2062,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2070,15 +2087,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -2093,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -2310,7 +2327,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2324,7 +2341,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2332,7 +2349,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2340,7 +2357,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2355,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2368,145 +2385,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC7D03-C35D-4B1A-9C45-C67AA9CF0D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FC0BC-4AC3-4D4B-A4C4-FED71C464A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,276 @@
   </si>
   <si>
     <t>wL = 0.1 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10: Synchronous machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xov = 0 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29: Grid-forming inverter with frequency droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and branch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FromBus should NOT equal to ToBus in this list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (participation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-Disable, 1-Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC bus type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w droop gain Dw
+= 5/100 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: droop
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: vdq
+= 250 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: idq
+= 500 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: vdc
+ = 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth: PLL
+= 20 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area type: 1-AC, 2-DC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC or DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%===============================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100: DC floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1090: DC infinite bus (small-signal short-circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90: AC infinite bus (short circuit in 
+small-signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100: AC floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: constant field flux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: with exitation circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: with prime mover control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10: dc-side input is Pdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11: fixed vdc, id_r = Pdc/vd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12: dc-side input is idc = Pdc/vdc_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001: with vdc dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdc = 2 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdc
+= 10 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020-1029: Grid-forming buck converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc = 0.8 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL = 0.05 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 0000-0100: AC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 1000-1100: DC device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 2000-2100: Hybrid device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010-1019: Grid-feeding buck converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000: power flow control (grid-feeding at both sides)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003: transfverter (grid-forming at both sides)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20: fixed vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-2009: AC-DC interlink converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC bus type: 1-slack bus (V bus), 2-N/A, 3-P bus (I bus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001: vdc control (grid-forming at dc side)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002: vac control (grid-forming at ac side)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-Gauss-Seidel, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-Newton-Raphson</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Newton-Raphson power flow method can be used for pure ac grids only.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth i
+= 500 Hz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,7 +620,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
+        <color rgb="FF0070C0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -372,182 +642,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-10: Synchronous machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xov = 0 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29: Grid-forming inverter with frequency droop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added between FromBus and branch.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FromBus should NOT equal to ToBus in this list.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The transformer is added by turn ratio, which is connected between FromBus and Zbranch in the layout.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable (participation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-Disable, 1-Enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The branches can be listed in arbitrary order.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC bus type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w droop gain Dw
-= 5/100 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: droop
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: vdq
-= 250 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: idq
+    <t>wLac = 0.05 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc = 1.6 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldc = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rac = 0.05/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rdc = 0.01/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth idq
 = 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: vdc
- = 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: PLL
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area type: 1-AC, 2-DC.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC or DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%===============================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%%%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100: DC floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1090: DC infinite bus (small-signal short-circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90: AC infinite bus (short circuit in 
-small-signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100: AC floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: constant field flux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: with exitation circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: with prime mover control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10: dc-side input is Pdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11: fixed vdc, id_r = Pdc/vd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12: dc-side input is idc = Pdc/vdc_r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001: with vdc dynamics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vdc = 2 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R = 0.01 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,97 +672,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1020-1029: Grid-forming buck converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth I
-= 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cdc = 0.8 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL = 0.05 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The dc and hybrid devices support default data only for now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 0000-0100: AC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 1000-1100: DC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 2000-2100: Hybrid device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010-1019: Grid-feeding buck converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000: power flow control (grid-feeding at both sides)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003: transfverter (grid-forming at both sides)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default data will be updated later.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-2009: AC-DC interlink converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC bus type: 1-slack bus (V bus), 2-N/A, 3-P bus (I bus)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001: vdc control (grid-forming at dc side)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002: vac control (grid-forming at ac side)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1-Gauss-Seidel, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-Newton-Raphson</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Newton-Raphson power flow method can be used for pure ac grids only.</t>
+    <t>Bandwidth PLL
+= 10 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dc and ac-dc hybrid devices support default data only, and do not support custormized data for now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,21 +734,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,18 +794,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1093,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1099,18 +1117,18 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>100</v>
+      <c r="A3" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1125,20 +1143,20 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1165,10 +1183,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1334,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1346,10 +1364,10 @@
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.53125" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" customWidth="1"/>
     <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="17.9296875" customWidth="1"/>
     <col min="13" max="13" width="14.46484375" customWidth="1"/>
@@ -1383,7 +1401,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1392,8 +1410,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>125</v>
+      <c r="A8" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1417,7 +1435,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1429,13 +1447,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
@@ -1452,22 +1470,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1487,39 +1505,39 @@
         <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="11" t="s">
-        <v>79</v>
+      <c r="B25" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -1537,24 +1555,24 @@
         <v>72</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="12" t="s">
-        <v>132</v>
+      <c r="B26" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1563,7 +1581,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1572,7 +1590,7 @@
     </row>
     <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -1580,7 +1598,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1589,7 +1607,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -1597,148 +1615,169 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="G35" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="14" t="s">
-        <v>115</v>
+      <c r="B36" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="14" t="s">
-        <v>117</v>
+      <c r="B37" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="13" t="s">
-        <v>121</v>
+      <c r="B39" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="15" t="s">
-        <v>116</v>
+      <c r="B40" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="17" t="s">
-        <v>131</v>
+      <c r="B53" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>33</v>
@@ -1876,22 +1915,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1911,7 +1950,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1934,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2062,12 +2101,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2087,7 +2126,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2327,7 +2366,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2374,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2390,17 +2429,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2467,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2516,13 +2555,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>84</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FC0BC-4AC3-4D4B-A4C4-FED71C464A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4CC3A2-DCED-48E0-AC36-227FBDDF48B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,10 @@
   </si>
   <si>
     <t>The dc and ac-dc hybrid devices support default data only, and do not support custormized data for now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The load can also be added to network line directly with setting Pli and Qli to zero here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1147,92 +1151,59 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1267,7 +1238,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1305,10 +1276,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1320,7 +1291,7 @@
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1338,6 +1309,44 @@
         <v>1</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>-0.2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4CC3A2-DCED-48E0-AC36-227FBDDF48B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6B155-EE44-448F-8173-2F5DBA81DC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,18 +476,6 @@
   </si>
   <si>
     <t>100: AC floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: constant field flux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: with exitation circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: with prime mover control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,6 +670,26 @@
   </si>
   <si>
     <t>The load can also be added to network line directly with setting Pli and Qli to zero here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: with exitation circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3: with prime mover control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: constant field flux, rotor motion of torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: constant flux voltage, rotor motion of power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19: PR controlled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1140,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1152,7 +1160,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -1359,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1410,7 +1418,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1420,7 +1428,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1444,7 +1452,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1479,131 +1487,124 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="17" t="s">
-        <v>109</v>
+      <c r="B17" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
-        <v>110</v>
+      <c r="B18" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="10" t="s">
+    <row r="27" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
@@ -1614,22 +1615,29 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
-        <v>107</v>
+    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>124</v>
+      <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1639,65 +1647,65 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="15" t="s">
+    <row r="37" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="8" t="s">
-        <v>105</v>
+      <c r="B42" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -1706,18 +1714,18 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
-        <v>104</v>
+      <c r="B44" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="8" t="s">
-        <v>125</v>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
@@ -1727,131 +1735,93 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B49" s="8" t="s">
+    <row r="51" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0.02</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0.02</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58">
-        <v>0.35</v>
+      <c r="C58" s="2">
+        <v>3.5</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1859,36 +1829,84 @@
       <c r="E58">
         <v>0.02</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>0.01</v>
       </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0.35</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0.02</v>
+      </c>
+      <c r="F60">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>4</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>2.5</v>
       </c>
-      <c r="D59">
+      <c r="D61">
         <v>1.25</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>0.03</v>
       </c>
-      <c r="F59">
+      <c r="F61">
         <v>0.01</v>
       </c>
-      <c r="G59">
+      <c r="G61">
         <v>20</v>
       </c>
-      <c r="H59">
+      <c r="H61">
         <v>20</v>
       </c>
-      <c r="I59">
+      <c r="I61">
         <v>500</v>
       </c>
     </row>
@@ -2438,12 +2456,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2515,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6B155-EE44-448F-8173-2F5DBA81DC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43D0B-DE8E-4752-9A0C-04661D3A49D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19: PR controlled</t>
+    <t>19: stationary frame modeling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>150</v>
       </c>
     </row>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43D0B-DE8E-4752-9A0C-04661D3A49D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8520A1-37F6-42A7-B568-1C9ADC5520F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2585,7 +2585,7 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8520A1-37F6-42A7-B568-1C9ADC5520F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45992AB-856B-4365-B042-5B399A62ABC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1922,7 +1922,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2440,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45992AB-856B-4365-B042-5B399A62ABC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8204171-73D2-4CC4-B2A8-FC8C26014A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -609,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -620,7 +620,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -698,19 +698,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -719,7 +719,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,7 +727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,7 +735,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,14 +743,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,7 +758,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -766,7 +766,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -794,7 +794,7 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,71 +1104,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.9296875" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1373,70 +1373,70 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="17.53125" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.9296875" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1444,31 +1444,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="B14" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1485,32 +1485,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12">
       <c r="B17" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12">
       <c r="B18" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12">
       <c r="B19" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12">
       <c r="B20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="29.25" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12">
       <c r="B25" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12">
       <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="27.4" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>78</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12">
       <c r="B28" s="11" t="s">
         <v>126</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12">
       <c r="B29" s="8" t="s">
         <v>103</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="34.5" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>106</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12">
       <c r="B31" s="8" t="s">
         <v>103</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
@@ -1640,27 +1640,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8">
       <c r="B33" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8">
       <c r="B34" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8">
       <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" ht="30">
       <c r="B37" s="12" t="s">
         <v>123</v>
       </c>
@@ -1683,72 +1683,72 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8">
       <c r="B38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8">
       <c r="B39" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8">
       <c r="B40" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8">
       <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8">
       <c r="B43" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8">
       <c r="B44" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8">
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8">
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8">
       <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8">
       <c r="B48" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10">
       <c r="B49" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10">
       <c r="B50" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="30">
       <c r="B51" s="8" t="s">
         <v>127</v>
       </c>
@@ -1777,32 +1777,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10">
       <c r="B52" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10">
       <c r="B53" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10">
       <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10">
       <c r="B55" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10">
       <c r="A56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1925,62 +1925,62 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2110,53 +2110,53 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2378,25 +2378,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2440,36 +2440,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2536,18 +2536,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2580,12 +2580,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8204171-73D2-4CC4-B2A8-FC8C26014A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B22E2-2211-45F8-A15A-6E10D4E5146B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -609,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -620,7 +620,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -698,19 +698,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -719,7 +719,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,7 +727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,7 +735,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,14 +743,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,7 +758,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -766,7 +766,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -794,7 +794,7 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,67 +1108,67 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1373,70 +1373,70 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1444,31 +1444,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1485,32 +1485,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="29.25" customHeight="1">
+    <row r="21" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="27.4" customHeight="1">
+    <row r="27" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>78</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>126</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
         <v>103</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:12" ht="34.5" customHeight="1">
+    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
         <v>106</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
         <v>103</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
@@ -1640,27 +1640,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="30">
+    <row r="37" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B37" s="12" t="s">
         <v>123</v>
       </c>
@@ -1683,72 +1683,72 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30">
+    <row r="51" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B51" s="8" t="s">
         <v>127</v>
       </c>
@@ -1777,32 +1777,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B55" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1925,62 +1925,62 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2110,53 +2110,53 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2378,25 +2378,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2441,35 +2441,35 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2536,18 +2536,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2580,12 +2580,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B22E2-2211-45F8-A15A-6E10D4E5146B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FEB1C-D447-40A6-91F6-2E8AF4D8561C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2440,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45992AB-856B-4365-B042-5B399A62ABC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139A1D0-8A38-4191-B6B4-F77A1D9FC906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FEB1C-D447-40A6-91F6-2E8AF4D8561C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6923F-858D-4CD7-9412-D494633901A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="50325" yWindow="3720" windowWidth="3600" windowHeight="1845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -638,10 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ldc = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rac = 0.05/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +686,10 @@
   </si>
   <si>
     <t>19: stationary frame modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLdc = 0.01 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1379,9 +1379,9 @@
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.1328125" customWidth="1"/>
     <col min="9" max="9" width="17.59765625" customWidth="1"/>
     <col min="10" max="10" width="17.3984375" customWidth="1"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1487,22 +1487,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -1759,22 +1759,22 @@
         <v>136</v>
       </c>
       <c r="E51" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="J51" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6923F-858D-4CD7-9412-D494633901A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31739B1-0F93-4F4B-B30D-E9EAAB34DB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="50325" yWindow="3720" windowWidth="3600" windowHeight="1845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The bus 1 HAVE TO be the slack bus, i.e., type-1 bus.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samping frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,14 +317,6 @@
   </si>
   <si>
     <t>wCf = 0.02 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wLc = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rc = 0.01/5 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -642,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rdc = 0.01/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bandwidth idq
 = 500 Hz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,14 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The dc and ac-dc hybrid devices support default data only, and do not support custormized data for now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The load can also be added to network line directly with setting Pli and Qli to zero here.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2: with exitation circuit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,7 +665,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wLdc = 0.01 pu</t>
+    <t>The self branch can represent the passive load, which is equivalent to the load settings in bus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The passive load can also be added by using the "NetworkLine" sheet with setting Pli and Qli to zero here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLdc = 0.02 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rdc = 0.02/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLc = 0.02 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rc = 0.02/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first bus of each area has to be the slack bus, i.e., type-1 bus.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +770,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -816,12 +822,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1130,80 +1134,80 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1367,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1393,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1403,7 +1407,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1413,409 +1417,428 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>143</v>
+      <c r="A8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
+      <c r="B15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>147</v>
+      <c r="B16" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
-        <v>148</v>
+      <c r="B17" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
-        <v>145</v>
+      <c r="B18" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F20" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>110</v>
+      <c r="B24" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="H26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="11" t="s">
-        <v>126</v>
+      <c r="B28" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
+      <c r="B32" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B37" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="12" t="s">
-        <v>117</v>
+      <c r="B41" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="14" t="s">
-        <v>112</v>
+      <c r="B42" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="8" t="s">
-        <v>103</v>
+      <c r="B45" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>104</v>
+      <c r="B46" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B51" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="J50" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>142</v>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="13" t="s">
-        <v>129</v>
+      <c r="B53" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="16" t="s">
-        <v>125</v>
+      <c r="A55" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0.02</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1839,13 +1862,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="2">
-        <v>3.5</v>
+      <c r="C59">
+        <v>0.35</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1853,60 +1876,36 @@
       <c r="E59">
         <v>0.02</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>0.01</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>0.35</v>
+        <v>2.5</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>10</v>
-      </c>
-      <c r="C61">
-        <v>2.5</v>
-      </c>
-      <c r="D61">
-        <v>1.25</v>
-      </c>
-      <c r="E61">
-        <v>0.03</v>
-      </c>
-      <c r="F61">
-        <v>0.01</v>
-      </c>
-      <c r="G61">
+      <c r="G60">
         <v>20</v>
       </c>
-      <c r="H61">
+      <c r="H60">
         <v>20</v>
       </c>
-      <c r="I61">
+      <c r="I60">
         <v>500</v>
       </c>
     </row>
@@ -1932,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1942,32 +1941,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1977,15 +1976,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -2000,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2104,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2128,12 +2127,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2143,71 +2142,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>86</v>
+      <c r="A8" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -2227,10 +2208,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
       </c>
       <c r="C12">
         <v>0.01</v>
@@ -2253,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.01</v>
@@ -2268,38 +2249,38 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F14">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2319,10 +2300,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2334,7 +2315,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2342,10 +2323,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2357,9 +2338,32 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F18">
         <v>0.05</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
@@ -2388,17 +2392,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000/2</f>
@@ -2407,7 +2411,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2415,7 +2419,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2423,7 +2427,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2441,7 +2445,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2451,144 +2455,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31739B1-0F93-4F4B-B30D-E9EAAB34DB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD99E60C-F349-4EF3-B582-5C78B2E110F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -681,15 +681,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wLc = 0.02 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rc = 0.02/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The first bus of each area has to be the slack bus, i.e., type-1 bus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLc = 0.01 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rc = 0.01/5 pu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1575,10 +1575,10 @@
         <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>74</v>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD99E60C-F349-4EF3-B582-5C78B2E110F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC024D-010B-43F5-878E-07F478C26248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>For using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type with default values:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%===============================</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +253,6 @@
   </si>
   <si>
     <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,6 +670,22 @@
   </si>
   <si>
     <t>Rc = 0.01/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus type with default values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,22 +1130,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1159,55 +1155,55 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1373,9 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1397,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1417,12 +1411,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1432,173 +1426,173 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="I26" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1607,7 +1601,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1616,15 +1610,15 @@
     </row>
     <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1633,183 +1627,183 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -1931,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1941,32 +1935,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1976,15 +1970,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1999,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2127,12 +2121,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2152,20 +2146,20 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2180,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2392,12 +2386,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2411,7 +2405,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2427,7 +2421,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2455,144 +2449,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC024D-010B-43F5-878E-07F478C26248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876668-58A4-416B-9572-E3CF698C54AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2439,7 +2439,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD99E60C-F349-4EF3-B582-5C78B2E110F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876668-58A4-416B-9572-E3CF698C54AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>For using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type with default values:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%===============================</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +253,6 @@
   </si>
   <si>
     <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,6 +670,22 @@
   </si>
   <si>
     <t>Rc = 0.01/5 pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus type with default values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,22 +1130,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1159,55 +1155,55 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1373,9 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1397,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1417,12 +1411,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1432,173 +1426,173 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="I26" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1607,7 +1601,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1616,15 +1610,15 @@
     </row>
     <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1633,183 +1627,183 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -1931,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1941,32 +1935,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1976,15 +1970,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1999,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2127,12 +2121,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2152,20 +2146,20 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2180,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2392,12 +2386,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2411,7 +2405,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2427,7 +2421,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2445,7 +2439,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2455,144 +2449,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876668-58A4-416B-9572-E3CF698C54AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F072653-AD4F-4AEB-896F-08078D3687C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1912,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1994,98 +1994,6 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0.01</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2008,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F072653-AD4F-4AEB-896F-08078D3687C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEABEB-E09F-43D5-9BD9-F88FD3A022A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Notes:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,14 +349,6 @@
   </si>
   <si>
     <t>User data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, a pi-circuit between two buses, i.e., series R+jX impedance with parallel G/2+jB/2 admittance at two terminals.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In this form, Zbranch = R+jwL+1/(G+jwC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -686,6 +674,18 @@
   </si>
   <si>
     <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, Ybranch = 1/(R+jwL)+(G+jwC), i.e., R and L are in series, G and C are in prallel, RL and GC are in parallel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this form, a pi-circuit between two buses, i.e., series R+jwL impedance with parallel G/2+jwC/2 admittance between each bus and ground.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1120,90 +1120,90 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1391,208 +1391,208 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1610,15 +1610,15 @@
     </row>
     <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1627,183 +1627,183 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="J50" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1925,42 +1925,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1970,15 +1970,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2019,55 +2019,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2101,8 +2101,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2124,8 +2124,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2147,8 +2147,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2170,8 +2170,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0.99</v>
@@ -2184,11 +2184,11 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
       </c>
       <c r="E15" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2207,11 +2207,11 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
       </c>
       <c r="E16" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2230,11 +2230,11 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
       </c>
       <c r="E17" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2253,11 +2253,11 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
       </c>
       <c r="E18" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2294,17 +2294,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000/2</f>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2357,144 +2357,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEABEB-E09F-43D5-9BD9-F88FD3A022A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D62D0F-1FA0-4FF2-ABA9-C136003DE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self branch HAS TO be GC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +682,10 @@
   </si>
   <si>
     <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For adding passive load, please use PLi and QLi in the "Bus" sheet.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,22 +1130,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1155,55 +1155,55 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1369,7 +1369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1391,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1401,7 +1403,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1411,188 +1413,188 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" t="s">
         <v>141</v>
       </c>
-      <c r="G26" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1601,7 +1603,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1610,15 +1612,15 @@
     </row>
     <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1627,183 +1629,183 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="G36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="18" t="s">
+      <c r="I50" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="J50" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B54" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -1925,7 +1927,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1935,32 +1937,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1970,15 +1972,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1993,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2029,12 +2031,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2044,30 +2046,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2082,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2185,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2208,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2231,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2254,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2294,12 +2296,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2313,7 +2315,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2321,7 +2323,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2329,7 +2331,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2357,144 +2359,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>74</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D62D0F-1FA0-4FF2-ABA9-C136003DE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC8FA9-7658-4E9A-A757-3AEBA18134B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>wL = 0.1 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10: Synchronous machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19: stationary frame modeling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The self branch can represent the passive load, which is equivalent to the load settings in bus.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +678,10 @@
   </si>
   <si>
     <t>For adding passive load, please use PLi and QLi in the "Bus" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9: Synchronous machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,22 +1126,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1155,25 +1151,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
@@ -1200,10 +1196,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1367,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1393,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1418,22 +1414,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -1447,7 +1443,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -1459,13 +1455,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -1482,27 +1478,27 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1522,127 +1518,127 @@
         <v>59</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B24" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
-        <v>114</v>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7" t="s">
+    <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
+      <c r="B31" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1650,87 +1646,87 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="11" t="s">
+    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="G35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="18" t="s">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
-        <v>100</v>
+      <c r="B41" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>92</v>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
@@ -1738,79 +1734,98 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B49" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="F49" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="18" t="s">
+      <c r="I49" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="J49" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="18" t="s">
-        <v>129</v>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="16" t="s">
-        <v>113</v>
+      <c r="A54" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1834,13 +1849,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="2">
-        <v>3.5</v>
+      <c r="C58">
+        <v>0.35</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1848,60 +1863,36 @@
       <c r="E58">
         <v>0.02</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>0.01</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>0.35</v>
+        <v>2.5</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>2.5</v>
-      </c>
-      <c r="D60">
-        <v>1.25</v>
-      </c>
-      <c r="E60">
-        <v>0.03</v>
-      </c>
-      <c r="F60">
-        <v>0.01</v>
-      </c>
-      <c r="G60">
+      <c r="G59">
         <v>20</v>
       </c>
-      <c r="H60">
+      <c r="H59">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="I59">
         <v>500</v>
       </c>
     </row>
@@ -1937,22 +1928,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1972,7 +1963,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1995,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2031,12 +2022,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2056,12 +2047,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -2187,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2210,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2233,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2256,10 +2247,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2301,7 +2292,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2364,17 +2355,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2441,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2490,13 +2481,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139A1D0-8A38-4191-B6B4-F77A1D9FC906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254A08E-EB69-4B87-9579-264EA9302E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
